--- a/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/გურია/ოზურგეთი.xlsx
+++ b/municipal/სოციალური სტატისტიკა/რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა/გურია/ოზურგეთი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\გურია\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\რეგისტრირებული და საარსებო შემწეობის მიმღები ოჯახების რაოდენობა\გურია\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,25 +581,25 @@
         <v>11380</v>
       </c>
       <c r="E4" s="8">
-        <v>8767</v>
+        <v>11628</v>
       </c>
       <c r="F4" s="9">
-        <v>7739</v>
+        <v>10167</v>
       </c>
       <c r="G4" s="9">
-        <v>5815</v>
+        <v>8066</v>
       </c>
       <c r="H4" s="9">
-        <v>5950</v>
+        <v>8180</v>
       </c>
       <c r="I4" s="9">
-        <v>5834</v>
+        <v>7958</v>
       </c>
       <c r="J4" s="9">
-        <v>6361</v>
+        <v>8629</v>
       </c>
       <c r="K4" s="9">
-        <v>6700</v>
+        <v>9072</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -617,25 +617,25 @@
         <v>1961</v>
       </c>
       <c r="E5" s="9">
-        <v>1187</v>
+        <v>1791</v>
       </c>
       <c r="F5" s="9">
-        <v>1306</v>
+        <v>2133</v>
       </c>
       <c r="G5" s="9">
-        <v>1213</v>
+        <v>2031</v>
       </c>
       <c r="H5" s="9">
-        <v>1229</v>
+        <v>2059</v>
       </c>
       <c r="I5" s="9">
-        <v>1445</v>
+        <v>2281</v>
       </c>
       <c r="J5" s="9">
-        <v>1791</v>
+        <v>2809</v>
       </c>
       <c r="K5" s="9">
-        <v>2399</v>
+        <v>3592</v>
       </c>
       <c r="L5" s="10"/>
     </row>
